--- a/Dicionário_de_Dados.xlsx
+++ b/Dicionário_de_Dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Renato\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Itens</t>
   </si>
@@ -243,6 +243,17 @@
 - Desktop
 - Impressoras / Fax / Copiadora
 }</t>
+  </si>
+  <si>
+    <t>- ( N Produtos --&gt; Estoque N)
+- ( N Produtos --&gt; Departamentos 1)
+- ( N Produtos --&gt; Clientes N)
+- ( N Produtos --&gt;  Fornecedores N)</t>
+  </si>
+  <si>
+    <t>- ( N Funcionários --&gt; Empresa 1)
+- ( N Funcionários --&gt; Departamentos N)
+- ( N Funcionários --&gt; Serviços N)</t>
   </si>
 </sst>
 </file>
@@ -299,12 +310,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -622,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,16 +672,16 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -679,16 +689,16 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -696,16 +706,16 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -713,16 +723,16 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -730,16 +740,16 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -747,14 +757,16 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -762,14 +774,16 @@
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -777,16 +791,16 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
